--- a/01.Docs/G2_lan2.xlsx
+++ b/01.Docs/G2_lan2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Project\BYT-Hawaco-GW\01.Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1902E-7F82-40F1-A8E2-5EF9D81CD1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>IMSI</t>
   </si>
@@ -237,12 +229,24 @@
   </si>
   <si>
     <t>860262050129258 (thay the)</t>
+  </si>
+  <si>
+    <t>Lên</t>
+  </si>
+  <si>
+    <t>0 lên</t>
+  </si>
+  <si>
+    <t>lên</t>
+  </si>
+  <si>
+    <t>len</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +621,7 @@
     <col min="8" max="8" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,8 +640,11 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -650,8 +657,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -664,8 +674,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -684,8 +697,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,8 +714,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,8 +737,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,8 +754,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -746,8 +771,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -766,8 +794,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -786,8 +817,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -806,8 +840,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -826,8 +863,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -840,8 +880,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -860,8 +903,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -883,8 +929,11 @@
       <c r="H15" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -897,8 +946,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -911,8 +963,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -922,8 +977,11 @@
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -936,44 +994,47 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
